--- a/ChuangYeRen_Project/创业人开发计划.xlsx
+++ b/ChuangYeRen_Project/创业人开发计划.xlsx
@@ -120,102 +120,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>生产订单要到开工状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产订单的反开工，弃审，删除接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售出货单据弃审，删除接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品入库接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占炳源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月21号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月21号-5月31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月28号-5月31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月10号-5月31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月10号-5月31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业人审核--根据生产订单号领料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照生产订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照入库单--来源是成品入库行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：所有创业人单据上有销售订单号的都写到项目号上，写到U9单据都要自动审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形态转换接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductionRelationBP.ubfbp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarehorseRelationBP.ubfbp</t>
+  </si>
+  <si>
+    <t>ShipmentRelationBP.ubfbp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarehorseRelationBP.ubfbp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PublicDataTransObj.ubfbp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共的数据传输对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>生产订单单据接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产订单要到开工状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产订单的反开工，弃审，删除接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售出货单据弃审，删除接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品入库接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占炳源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月21号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月21号-5月31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月28号-5月31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月10号-5月31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月10号-5月31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创业人审核--根据生产订单号领料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照生产订单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照入库单--来源是成品入库行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：所有创业人单据上有销售订单号的都写到项目号上，写到U9单据都要自动审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形态转换接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductionRelationBP.ubfbp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WarehorseRelationBP.ubfbp</t>
-  </si>
-  <si>
-    <t>ShipmentRelationBP.ubfbp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WarehorseRelationBP.ubfbp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PublicDataTransObj.ubfbp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共的数据传输对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,6 +385,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,26 +412,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,7 +728,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E23"/>
+      <selection sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -754,72 +754,72 @@
         <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>35</v>
+      <c r="E2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="13" t="s">
-        <v>44</v>
+      <c r="H2" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>36</v>
+      <c r="F4" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -828,34 +828,34 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="13"/>
-      <c r="J5" s="12"/>
+      <c r="H5" s="14"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>37</v>
+      <c r="F6" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="13" t="s">
-        <v>45</v>
+      <c r="H6" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -863,59 +863,59 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>35</v>
+      <c r="F10" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="13" t="s">
-        <v>46</v>
+      <c r="H10" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -923,61 +923,61 @@
         <v>6</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>36</v>
+      <c r="F12" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>38</v>
+      <c r="F14" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="13" t="s">
-        <v>47</v>
+      <c r="H14" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -985,12 +985,12 @@
         <v>1</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -999,55 +999,55 @@
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="16"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="14" t="s">
+      <c r="A18" s="7" t="s">
         <v>49</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -1090,7 +1090,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7673196A-46FC-4CFA-B5A8-94E84ACD98E6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8CA098D-840C-433E-BCCF-B8043CE643CD}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/ChuangYeRen_Project/创业人开发计划.xlsx
+++ b/ChuangYeRen_Project/创业人开发计划.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="创业人开发计划" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>标准收货单据接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WarehorseRelationBP.ubfbp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所属组件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,13 +214,69 @@
   <si>
     <t>生产订单单据接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OtherBillImportBP.ubfbp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">生产订单导入，审核，开工接口
+生产订单的反开工，弃审，删除接口
+生产领料导入，审核接口
+生产退料导入，审核接口
+成品入库导入，审核接口
+成品出库导入，审核接口
+杂发导入，审核接口
+杂收导入，审核接口
+标准收货导入，审核接口
+标准出货导入，审核接口
+标准收货单据弃审，删除接口
+销售出货单据弃审，删除接口
+调拨单据导入，审核接口
+采购退货导入，审核接口
+人工费用数据导入，审核接口
+形态转换导入，审核接口
+生产订单导入，审核，开工接口
+生产订单的反开工，弃审，删除接口
+生产领料导入，审核接口
+生产退料导入，审核接口
+成品入库导入，审核接口
+成品出库导入，审核接口
+杂发导入，审核接口
+杂收导入，审核接口
+标准收货导入，审核接口
+标准出货导入，审核接口
+标准收货单据弃审，删除接口
+销售出货单据弃审，删除接口
+调拨单据导入，审核接口
+采购退货导入，审核接口
+人工费用数据导入，审核接口
+形态转换导入，审核接口
+生产订单导入，审核，开工接口
+生产订单的反开工，弃审，删除接口
+生产领料导入，审核接口
+生产退料导入，审核接口
+成品入库导入，审核接口
+成品出库导入，审核接口
+杂发导入，审核接口
+杂收导入，审核接口
+标准收货导入，审核接口
+标准出货导入，审核接口
+标准收货单据弃审，删除接口
+销售出货单据弃审，删除接口
+调拨单据导入，审核接口
+采购退货导入，审核接口
+人工费用数据导入，审核接口
+形态转换导入，审核接口
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +314,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -371,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -397,29 +457,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A17"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -760,30 +826,30 @@
         <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -794,12 +860,12 @@
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="14"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -808,18 +874,18 @@
       <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -828,12 +894,12 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="14"/>
+      <c r="H5" s="9"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -843,18 +909,18 @@
       <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -865,56 +931,56 @@
       <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="14"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -923,61 +989,61 @@
         <v>6</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="14"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="14" t="s">
-        <v>46</v>
+      <c r="H14" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -985,12 +1051,12 @@
         <v>1</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -999,12 +1065,12 @@
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1012,45 +1078,54 @@
         <v>42</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H13"/>
@@ -1067,15 +1142,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1085,12 +1151,100 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="41.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="17"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="17"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A20"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="BudgetSheetCodeName" r:id="rId2"/>
+  </customProperties>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <DataSources/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8CA098D-840C-433E-BCCF-B8043CE643CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17F5C248-7902-4391-B0FE-7B1C7628EAAD}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/ChuangYeRen_Project/创业人开发计划.xlsx
+++ b/ChuangYeRen_Project/创业人开发计划.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="创业人开发计划" sheetId="2" r:id="rId1"/>
@@ -457,42 +457,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -791,10 +819,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -836,20 +865,20 @@
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -860,12 +889,12 @@
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -874,18 +903,18 @@
       <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -894,12 +923,12 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="14"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -909,18 +938,18 @@
       <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -931,56 +960,56 @@
       <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -989,60 +1018,60 @@
         <v>6</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="9" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1051,12 +1080,12 @@
         <v>1</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1065,12 +1094,12 @@
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1078,12 +1107,12 @@
         <v>42</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
@@ -1096,36 +1125,27 @@
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H13"/>
@@ -1142,6 +1162,15 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1153,10 +1182,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1165,66 +1195,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
+      <c r="A2" s="18"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
+      <c r="A18" s="18"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1244,7 +1274,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17F5C248-7902-4391-B0FE-7B1C7628EAAD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB118040-B5A0-4329-B700-FDD2BD85FB4C}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>